--- a/Doc/191215Dck명령어일람.xlsx
+++ b/Doc/191215Dck명령어일람.xlsx
@@ -4,29 +4,26 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="날짜관련" sheetId="1" r:id="rId1"/>
-    <sheet name="날짜-null처리표" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Dud 메서드 목록" sheetId="5" r:id="rId1"/>
+    <sheet name="날짜관련 비교표" sheetId="1" r:id="rId2"/>
+    <sheet name="구현대기 목록" sheetId="3" r:id="rId3"/>
+    <sheet name="개선 계획" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="109">
   <si>
     <t>Dud</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>JodaTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일' 단위 날짜 조정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -60,10 +57,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>getMoreFuture</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>구간내 날짜인지 확인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -88,10 +81,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>날짜 -&gt; 8자형 int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>dateToYymmdd_2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -120,10 +109,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>자동 인식하여 날짜 파싱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Javascript</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -140,10 +125,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>텍스트에서 날짜 패턴 추출</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>날짜 조정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -161,11 +142,6 @@
   </si>
   <si>
     <t>Dud.toDate_pat("yyyy-MM-dd", str);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SimpleDateFormat sdf = new SimpleDateFormat("yyyy-MM-dd");
-  d = sdf.parse(str);</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -175,10 +151,6 @@
   </si>
   <si>
     <t>없음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BBS 1형 - 오늘 날짜는 시:분만 표시, 그 이전은 년월일 시:분표시</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -194,7 +166,284 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>자동 인식하여 날짜 파싱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>텍스트에서 날짜 패턴 추출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SimpleDateFormat sdf = new SimpleDateFormat("yyyy-MM-dd");
+  d = sdf.parse(str);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘날짜 HH:mm, 그 이전 yyyy-MMdd HH:mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yyMMdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yyyy-MM-dd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yyyy-MM-dd HH:mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몇시간전, 몇분전, 몇일전, 몇달전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정규표현식 주어진 문자열 전환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Dud.toStr_bbs(d);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dud.toStr_bbs_2(d);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yyMMdd HH:mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dud.toStr_mm(d);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dud.toStr_pat(pat, d);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dud.extractDateString(str)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>toStr_yyMMddHHmmss(d);</t>
+  </si>
+  <si>
+    <t>Dud.toStr_yyMMddHHmmss(d);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dud.toStr_yyMMdd(d);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dud.toStr_hyphen(d);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일' 단위 날짜 조정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dud.addDay(d, -3); // 3일전 날짜반환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dud.addMonth(d, -3);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dud.addYear(d,-3);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Calendar c = Calendar.getInstance();
+  c.setTime(d);
+  c.add(Calendar.MONTH, i);
+  return c.getTime();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dud.getMoreFuture(d1, d2);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dud.getMorePast(d1,d2);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가할 요구사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dud.toStr 시에 null 들어온 경우 처리 및 toStr_nvl() 개발 가능성 검토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d3가 d1~d2 사이에 들어오면 true 반환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"180101~190101" 형태의 스트링을 둘로 나눠서 반환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dud.parseDateRange 를 그냥 ~로 스플릿해서 Date 로 바꿔주는 방법이 나을듯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>toStr_yyyymm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>toStr_yyyyMMdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날짜를 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>setAsTomorrowZeroHour</t>
+  </si>
+  <si>
+    <t>setAsZeroHour</t>
+  </si>
+  <si>
+    <t>날짜 비교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>toDate(str);</t>
+  </si>
+  <si>
+    <t>toDate_pat("yyyy-MM-dd", str);</t>
+  </si>
+  <si>
+    <t>extractDateString(str)</t>
+  </si>
+  <si>
+    <t>toStr_pat(pat, d);</t>
+  </si>
+  <si>
+    <t>toStr_bbs(d);</t>
+  </si>
+  <si>
+    <t>toStr_yyMMdd(d);</t>
+  </si>
+  <si>
+    <t>toStr_hyphen(d);</t>
+  </si>
+  <si>
+    <t>toStr_bbs_2(d);</t>
+  </si>
+  <si>
+    <t>toStr_mm(d);</t>
+  </si>
+  <si>
+    <t>addDay(d, -3); // 3일전 날짜반환</t>
+  </si>
+  <si>
+    <t>addMonth(d, -3);</t>
+  </si>
+  <si>
+    <t>addYear(d,-3);</t>
+  </si>
+  <si>
+    <t>getMorePast(d1,d2);</t>
+  </si>
+  <si>
+    <t>getMoreFuture(d1, d2);</t>
+  </si>
+  <si>
+    <t>dateAccept(d1, d2, d3);</t>
+  </si>
+  <si>
+    <t>parseDateRange("180101~190101")</t>
+  </si>
+  <si>
+    <t>toStr(d1,d2)</t>
+  </si>
+  <si>
+    <t>dateYymm</t>
+  </si>
+  <si>
+    <t>dateToYymmdd_2</t>
+  </si>
+  <si>
+    <t>getLastDayOfMonth</t>
+  </si>
+  <si>
+    <t>금일의 24:00 로 설정 반환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금일의 00:00 로 설정 반환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동일한 시간이면 true 반환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6자리 날짜 표현을 8자리로 변환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"190101" 을 넣으면 "20190101" 반환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최초 공개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dud 속성 가져오는 메서드 보완</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주요 메서드 JodaTime, JS, Jquery 비교 표 포스팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dup 설명 포스팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dus 설명 포스팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Duc 설명 포스팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Duc 형변환 관련 메서드 보완 및 목록 정리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Duw 설명 포스팅</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -202,7 +451,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,8 +475,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -246,6 +503,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -259,21 +534,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -575,211 +856,635 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K36"/>
+  <dimension ref="A3:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
+    <col min="1" max="1" width="17.59765625" customWidth="1"/>
+    <col min="2" max="2" width="24.3984375" customWidth="1"/>
+    <col min="3" max="3" width="23.19921875" customWidth="1"/>
+    <col min="4" max="4" width="33.296875" customWidth="1"/>
+    <col min="5" max="5" width="23.3984375" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5" s="6"/>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6" s="6"/>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8" s="7"/>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9" s="7"/>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10" s="7"/>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11" s="7"/>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A12" s="7"/>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A13" s="7"/>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A14" s="7"/>
+      <c r="D14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A15" s="7"/>
+      <c r="D15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A16" s="7"/>
+      <c r="D16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="7"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" s="6"/>
+      <c r="B19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" s="6"/>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" s="6"/>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" s="6"/>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" s="6"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25" s="7"/>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s">
+        <v>90</v>
+      </c>
+      <c r="E25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" s="7"/>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27" s="7"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A28" s="7"/>
+      <c r="D28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A29" s="7"/>
+      <c r="D29" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A30" s="7"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A31" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A32" s="6"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A33" s="6"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A34" s="6"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A35" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" t="s">
+        <v>95</v>
+      </c>
+      <c r="D35" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A36" s="11"/>
+      <c r="B36" t="s">
+        <v>96</v>
+      </c>
+      <c r="D36" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A37" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" t="s">
+        <v>97</v>
+      </c>
+      <c r="D37" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A38" s="6"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>98</v>
+      </c>
+      <c r="B39" t="s">
+        <v>99</v>
+      </c>
+      <c r="E39" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="17.59765625" customWidth="1"/>
     <col min="2" max="2" width="24.3984375" customWidth="1"/>
     <col min="3" max="3" width="16.8984375" customWidth="1"/>
-    <col min="4" max="5" width="33.296875" customWidth="1"/>
-    <col min="6" max="6" width="41.296875" customWidth="1"/>
+    <col min="4" max="4" width="33.296875" customWidth="1"/>
+    <col min="5" max="5" width="33.296875" style="9" customWidth="1"/>
+    <col min="6" max="6" width="41.296875" style="9" customWidth="1"/>
     <col min="7" max="7" width="28.69921875" customWidth="1"/>
     <col min="8" max="8" width="32" customWidth="1"/>
     <col min="9" max="9" width="23.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="D1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="12"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="E3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>27</v>
+      <c r="G3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>23</v>
+      <c r="A4" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A5" s="6"/>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A6" s="6"/>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A8" s="7"/>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A9" s="7"/>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A10" s="7"/>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A11" s="7"/>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A12" s="7"/>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A13" s="7"/>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A14" s="7"/>
+      <c r="D14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="104.4" x14ac:dyDescent="0.4">
+      <c r="A15" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A16" s="6"/>
+      <c r="B16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17" s="6"/>
+      <c r="B17" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="5"/>
-    </row>
-    <row r="5" spans="1:11" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="226.2" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B17" t="s">
-        <v>9</v>
+      <c r="D17" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18" s="6"/>
       <c r="B18" t="s">
         <v>8</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19" s="6"/>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20" s="6"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A21" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22" s="7"/>
+      <c r="B22" t="s">
         <v>11</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D22" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B21" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A23" s="7"/>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" t="s">
         <v>13</v>
       </c>
-      <c r="D21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B22" t="s">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A24" s="7"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A25" s="7"/>
+      <c r="D25" t="s">
         <v>16</v>
       </c>
-      <c r="D22" t="s">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A26" s="7"/>
+      <c r="D26" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="D24" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A27" s="7"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A28" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A29" s="6"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A30" s="6"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A31" s="6"/>
+      <c r="B31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B37" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="D25" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B30" t="s">
-        <v>20</v>
-      </c>
-      <c r="D30" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B36" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -792,28 +1497,105 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="101.296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>191215</v>
+      </c>
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="65.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2">
+        <v>191225</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>